--- a/odkx/app/config/tables/census/forms/census/census.xlsx
+++ b/odkx/app/config/tables/census/forms/census/census.xlsx
@@ -728,7 +728,7 @@
     <t xml:space="preserve">cattle_not_found</t>
   </si>
   <si>
-    <t xml:space="preserve">cattle _finalize</t>
+    <t xml:space="preserve">cattle finalize</t>
   </si>
   <si>
     <t xml:space="preserve">validate cattle</t>
@@ -959,25 +959,7 @@
     <t xml:space="preserve">pig_&lt;6</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">data('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">hh_n_pigs_less_than_6_weeks') &lt; 100</t>
-    </r>
+    <t xml:space="preserve">data('hh_n_pigs_less_than_6_weeks') &lt; 100</t>
   </si>
   <si>
     <t xml:space="preserve">pigs_constraint</t>
@@ -989,7 +971,7 @@
     <t xml:space="preserve">pigs_not_found</t>
   </si>
   <si>
-    <t xml:space="preserve">pigs _finalize</t>
+    <t xml:space="preserve">pigs finalize</t>
   </si>
   <si>
     <t xml:space="preserve">validate pigs</t>
@@ -4584,7 +4566,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4604,12 +4586,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
     </font>
@@ -4706,23 +4682,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4823,13 +4799,13 @@
   </sheetPr>
   <dimension ref="A1:V395"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B309" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N334" activeCellId="0" sqref="N334"/>
+      <selection pane="bottomLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.04"/>
@@ -4924,6 +4900,10 @@
       <c r="A2" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V2" s="0" t="str">
+        <f aca="false">IF(OR(N2 &lt;&gt; "", J2 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
@@ -4932,6 +4912,10 @@
       <c r="F3" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="V3" s="0" t="str">
+        <f aca="false">IF(OR(N3 &lt;&gt; "", J3 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
@@ -4940,6 +4924,10 @@
       <c r="F4" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="V4" s="0" t="str">
+        <f aca="false">IF(OR(N4 &lt;&gt; "", J4 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
@@ -4951,6 +4939,10 @@
       <c r="F5" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="V5" s="0" t="str">
+        <f aca="false">IF(OR(N5 &lt;&gt; "", J5 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
@@ -4968,6 +4960,10 @@
       <c r="J6" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V6" s="0" t="str">
+        <f aca="false">IF(OR(N6 &lt;&gt; "", J6 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
@@ -4988,6 +4984,10 @@
       <c r="P7" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="V7" s="0" t="str">
+        <f aca="false">IF(OR(N7 &lt;&gt; "", J7 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
@@ -4996,6 +4996,10 @@
       <c r="F8" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="V8" s="0" t="str">
+        <f aca="false">IF(OR(N8 &lt;&gt; "", J8 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
@@ -5019,6 +5023,10 @@
       <c r="Q9" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V9" s="0" t="str">
+        <f aca="false">IF(OR(N9 &lt;&gt; "", J9 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
@@ -5039,17 +5047,34 @@
       <c r="Q10" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V10" s="0" t="str">
+        <f aca="false">IF(OR(N10 &lt;&gt; "", J10 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="V11" s="0" t="str">
+        <f aca="false">IF(OR(N11 &lt;&gt; "", J11 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V12" s="0" t="str">
+        <f aca="false">IF(OR(N12 &lt;&gt; "", J12 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V13" s="0" t="str">
+        <f aca="false">IF(OR(N13 &lt;&gt; "", J13 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
@@ -5058,6 +5083,10 @@
       <c r="F14" s="0" t="s">
         <v>47</v>
       </c>
+      <c r="V14" s="0" t="str">
+        <f aca="false">IF(OR(N14 &lt;&gt; "", J14 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
@@ -5066,6 +5095,10 @@
       <c r="F15" s="0" t="s">
         <v>48</v>
       </c>
+      <c r="V15" s="0" t="str">
+        <f aca="false">IF(OR(N15 &lt;&gt; "", J15 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
@@ -5083,6 +5116,10 @@
       <c r="J16" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V16" s="0" t="str">
+        <f aca="false">IF(OR(N16 &lt;&gt; "", J16 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
@@ -5097,11 +5134,19 @@
       <c r="U17" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V17" s="0" t="str">
+        <f aca="false">IF(OR(N17 &lt;&gt; "", J17 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="V18" s="0" t="str">
+        <f aca="false">IF(OR(N18 &lt;&gt; "", J18 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -5110,11 +5155,19 @@
       <c r="B19" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="V19" s="0" t="str">
+        <f aca="false">IF(OR(N19 &lt;&gt; "", J19 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V20" s="0" t="str">
+        <f aca="false">IF(OR(N20 &lt;&gt; "", J20 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
@@ -5129,6 +5182,10 @@
       <c r="Q21" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V21" s="0" t="str">
+        <f aca="false">IF(OR(N21 &lt;&gt; "", J21 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
@@ -5137,6 +5194,10 @@
       <c r="F22" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="V22" s="0" t="str">
+        <f aca="false">IF(OR(N22 &lt;&gt; "", J22 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
@@ -5145,6 +5206,10 @@
       <c r="F23" s="0" t="s">
         <v>60</v>
       </c>
+      <c r="V23" s="0" t="str">
+        <f aca="false">IF(OR(N23 &lt;&gt; "", J23 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
@@ -5159,6 +5224,16 @@
       <c r="G24" s="0" t="s">
         <v>64</v>
       </c>
+      <c r="V24" s="0" t="str">
+        <f aca="false">IF(OR(N24 &lt;&gt; "", J24 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V25" s="0" t="str">
+        <f aca="false">IF(OR(N25 &lt;&gt; "", J25 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
@@ -5188,6 +5263,10 @@
       <c r="U26" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V26" s="0" t="str">
+        <f aca="false">IF(OR(N26 &lt;&gt; "", J26 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
@@ -5202,6 +5281,10 @@
       <c r="F27" s="0" t="s">
         <v>70</v>
       </c>
+      <c r="V27" s="0" t="str">
+        <f aca="false">IF(OR(N27 &lt;&gt; "", J27 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -5210,6 +5293,10 @@
       <c r="B28" s="0" t="s">
         <v>71</v>
       </c>
+      <c r="V28" s="0" t="str">
+        <f aca="false">IF(OR(N28 &lt;&gt; "", J28 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
@@ -5224,6 +5311,10 @@
       <c r="F29" s="0" t="s">
         <v>74</v>
       </c>
+      <c r="V29" s="0" t="str">
+        <f aca="false">IF(OR(N29 &lt;&gt; "", J29 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -5232,6 +5323,10 @@
       <c r="B30" s="0" t="s">
         <v>75</v>
       </c>
+      <c r="V30" s="0" t="str">
+        <f aca="false">IF(OR(N30 &lt;&gt; "", J30 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
@@ -5240,6 +5335,10 @@
       <c r="F31" s="0" t="s">
         <v>76</v>
       </c>
+      <c r="V31" s="0" t="str">
+        <f aca="false">IF(OR(N31 &lt;&gt; "", J31 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
@@ -5260,26 +5359,46 @@
       <c r="M32" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V32" s="0" t="str">
+        <f aca="false">IF(OR(N32 &lt;&gt; "", J32 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V33" s="0" t="str">
+        <f aca="false">IF(OR(N33 &lt;&gt; "", J33 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V34" s="0" t="str">
+        <f aca="false">IF(OR(N34 &lt;&gt; "", J34 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="V35" s="0" t="str">
+        <f aca="false">IF(OR(N35 &lt;&gt; "", J35 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V36" s="0" t="str">
+        <f aca="false">IF(OR(N36 &lt;&gt; "", J36 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
@@ -5294,6 +5413,10 @@
       <c r="Q37" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V37" s="0" t="str">
+        <f aca="false">IF(OR(N37 &lt;&gt; "", J37 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
@@ -5311,6 +5434,10 @@
       <c r="J38" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="V38" s="0" t="str">
+        <f aca="false">IF(OR(N38 &lt;&gt; "", J38 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -5319,6 +5446,10 @@
       <c r="B39" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="V39" s="0" t="str">
+        <f aca="false">IF(OR(N39 &lt;&gt; "", J39 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
@@ -5333,6 +5464,10 @@
       <c r="U40" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V40" s="0" t="str">
+        <f aca="false">IF(OR(N40 &lt;&gt; "", J40 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
@@ -5347,6 +5482,10 @@
       <c r="J41" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="V41" s="0" t="str">
+        <f aca="false">IF(OR(N41 &lt;&gt; "", J41 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
@@ -5376,21 +5515,37 @@
       <c r="U42" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V42" s="0" t="str">
+        <f aca="false">IF(OR(N42 &lt;&gt; "", J42 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V43" s="0" t="str">
+        <f aca="false">IF(OR(N43 &lt;&gt; "", J43 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="V44" s="0" t="str">
+        <f aca="false">IF(OR(N44 &lt;&gt; "", J44 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V45" s="0" t="str">
+        <f aca="false">IF(OR(N45 &lt;&gt; "", J45 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -5399,11 +5554,19 @@
       <c r="B46" s="0" t="s">
         <v>93</v>
       </c>
+      <c r="V46" s="0" t="str">
+        <f aca="false">IF(OR(N46 &lt;&gt; "", J46 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V47" s="0" t="str">
+        <f aca="false">IF(OR(N47 &lt;&gt; "", J47 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
@@ -5418,6 +5581,10 @@
       <c r="Q48" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V48" s="0" t="str">
+        <f aca="false">IF(OR(N48 &lt;&gt; "", J48 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
@@ -5432,6 +5599,10 @@
       <c r="U49" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V49" s="0" t="str">
+        <f aca="false">IF(OR(N49 &lt;&gt; "", J49 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
@@ -5440,6 +5611,10 @@
       <c r="F50" s="0" t="s">
         <v>60</v>
       </c>
+      <c r="V50" s="0" t="str">
+        <f aca="false">IF(OR(N50 &lt;&gt; "", J50 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
@@ -5457,6 +5632,10 @@
       <c r="J51" s="0" t="s">
         <v>93</v>
       </c>
+      <c r="V51" s="0" t="str">
+        <f aca="false">IF(OR(N51 &lt;&gt; "", J51 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
@@ -5480,22 +5659,43 @@
       <c r="Q52" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V52" s="0" t="str">
+        <f aca="false">IF(OR(N52 &lt;&gt; "", J52 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="V53" s="0" t="str">
+        <f aca="false">IF(OR(N53 &lt;&gt; "", J53 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="55" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="V54" s="0" t="str">
+        <f aca="false">IF(OR(N54 &lt;&gt; "", J54 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V55" s="0" t="str">
+        <f aca="false">IF(OR(N55 &lt;&gt; "", J55 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V56" s="0" t="str">
+        <f aca="false">IF(OR(N56 &lt;&gt; "", J56 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
@@ -5504,6 +5704,10 @@
       <c r="F57" s="0" t="s">
         <v>99</v>
       </c>
+      <c r="V57" s="0" t="str">
+        <f aca="false">IF(OR(N57 &lt;&gt; "", J57 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="0" t="s">
@@ -5521,17 +5725,34 @@
       <c r="M58" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V58" s="0" t="str">
+        <f aca="false">IF(OR(N58 &lt;&gt; "", J58 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="60" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="V59" s="0" t="str">
+        <f aca="false">IF(OR(N59 &lt;&gt; "", J59 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V60" s="0" t="str">
+        <f aca="false">IF(OR(N60 &lt;&gt; "", J60 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V61" s="0" t="str">
+        <f aca="false">IF(OR(N61 &lt;&gt; "", J61 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="0" t="s">
@@ -5540,6 +5761,10 @@
       <c r="F62" s="0" t="s">
         <v>102</v>
       </c>
+      <c r="V62" s="0" t="str">
+        <f aca="false">IF(OR(N62 &lt;&gt; "", J62 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="0" t="s">
@@ -5548,6 +5773,10 @@
       <c r="F63" s="0" t="s">
         <v>103</v>
       </c>
+      <c r="V63" s="0" t="str">
+        <f aca="false">IF(OR(N63 &lt;&gt; "", J63 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="0" t="s">
@@ -5568,6 +5797,10 @@
       <c r="P64" s="0" t="s">
         <v>108</v>
       </c>
+      <c r="V64" s="0" t="str">
+        <f aca="false">IF(OR(N64 &lt;&gt; "", J64 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="s">
@@ -5576,6 +5809,10 @@
       <c r="F65" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="V65" s="0" t="str">
+        <f aca="false">IF(OR(N65 &lt;&gt; "", J65 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="0" t="s">
@@ -5596,6 +5833,10 @@
       <c r="P66" s="0" t="s">
         <v>108</v>
       </c>
+      <c r="V66" s="0" t="str">
+        <f aca="false">IF(OR(N66 &lt;&gt; "", J66 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="0" t="s">
@@ -5610,6 +5851,10 @@
       <c r="U67" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V67" s="0" t="str">
+        <f aca="false">IF(OR(N67 &lt;&gt; "", J67 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
@@ -5618,6 +5863,10 @@
       <c r="B68" s="0" t="s">
         <v>114</v>
       </c>
+      <c r="V68" s="0" t="str">
+        <f aca="false">IF(OR(N68 &lt;&gt; "", J68 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="0" t="s">
@@ -5629,11 +5878,19 @@
       <c r="H69" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="V69" s="0" t="str">
+        <f aca="false">IF(OR(N69 &lt;&gt; "", J69 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V70" s="0" t="str">
+        <f aca="false">IF(OR(N70 &lt;&gt; "", J70 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
@@ -5642,6 +5899,10 @@
       <c r="B71" s="0" t="s">
         <v>115</v>
       </c>
+      <c r="V71" s="0" t="str">
+        <f aca="false">IF(OR(N71 &lt;&gt; "", J71 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="0" t="s">
@@ -5659,11 +5920,19 @@
       <c r="J72" s="0" t="s">
         <v>115</v>
       </c>
+      <c r="V72" s="0" t="str">
+        <f aca="false">IF(OR(N72 &lt;&gt; "", J72 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V73" s="0" t="str">
+        <f aca="false">IF(OR(N73 &lt;&gt; "", J73 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="0" t="s">
@@ -5684,6 +5953,10 @@
       <c r="I74" s="0" t="s">
         <v>122</v>
       </c>
+      <c r="V74" s="0" t="str">
+        <f aca="false">IF(OR(N74 &lt;&gt; "", J74 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="0" t="s">
@@ -5698,17 +5971,34 @@
       <c r="F75" s="0" t="s">
         <v>124</v>
       </c>
+      <c r="V75" s="0" t="str">
+        <f aca="false">IF(OR(N75 &lt;&gt; "", J75 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="77" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="V76" s="0" t="str">
+        <f aca="false">IF(OR(N76 &lt;&gt; "", J76 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V77" s="0" t="str">
+        <f aca="false">IF(OR(N77 &lt;&gt; "", J77 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V78" s="0" t="str">
+        <f aca="false">IF(OR(N78 &lt;&gt; "", J78 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="0" t="s">
@@ -5717,6 +6007,10 @@
       <c r="F79" s="0" t="s">
         <v>125</v>
       </c>
+      <c r="V79" s="0" t="str">
+        <f aca="false">IF(OR(N79 &lt;&gt; "", J79 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="0" t="s">
@@ -5725,6 +6019,10 @@
       <c r="F80" s="0" t="s">
         <v>126</v>
       </c>
+      <c r="V80" s="0" t="str">
+        <f aca="false">IF(OR(N80 &lt;&gt; "", J80 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="0" t="s">
@@ -5736,6 +6034,10 @@
       <c r="F81" s="0" t="s">
         <v>128</v>
       </c>
+      <c r="V81" s="0" t="str">
+        <f aca="false">IF(OR(N81 &lt;&gt; "", J81 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
@@ -5744,6 +6046,10 @@
       <c r="B82" s="0" t="s">
         <v>129</v>
       </c>
+      <c r="V82" s="0" t="str">
+        <f aca="false">IF(OR(N82 &lt;&gt; "", J82 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="0" t="s">
@@ -5755,11 +6061,19 @@
       <c r="U83" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V83" s="0" t="str">
+        <f aca="false">IF(OR(N83 &lt;&gt; "", J83 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V84" s="0" t="str">
+        <f aca="false">IF(OR(N84 &lt;&gt; "", J84 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="0" t="s">
@@ -5777,6 +6091,10 @@
       <c r="O85" s="0" t="s">
         <v>134</v>
       </c>
+      <c r="V85" s="0" t="str">
+        <f aca="false">IF(OR(N85 &lt;&gt; "", J85 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="0" t="s">
@@ -5788,11 +6106,19 @@
       <c r="F86" s="0" t="s">
         <v>136</v>
       </c>
+      <c r="V86" s="0" t="str">
+        <f aca="false">IF(OR(N86 &lt;&gt; "", J86 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="V87" s="0" t="str">
+        <f aca="false">IF(OR(N87 &lt;&gt; "", J87 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="0" t="s">
@@ -5807,11 +6133,19 @@
       <c r="F88" s="0" t="s">
         <v>140</v>
       </c>
+      <c r="V88" s="0" t="str">
+        <f aca="false">IF(OR(N88 &lt;&gt; "", J88 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V89" s="0" t="str">
+        <f aca="false">IF(OR(N89 &lt;&gt; "", J89 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="0" t="s">
@@ -5829,6 +6163,10 @@
       <c r="I90" s="0" t="s">
         <v>144</v>
       </c>
+      <c r="V90" s="0" t="str">
+        <f aca="false">IF(OR(N90 &lt;&gt; "", J90 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
@@ -5837,6 +6175,10 @@
       <c r="B91" s="0" t="s">
         <v>145</v>
       </c>
+      <c r="V91" s="0" t="str">
+        <f aca="false">IF(OR(N91 &lt;&gt; "", J91 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="0" t="s">
@@ -5848,11 +6190,19 @@
       <c r="U92" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V92" s="0" t="str">
+        <f aca="false">IF(OR(N92 &lt;&gt; "", J92 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V93" s="0" t="str">
+        <f aca="false">IF(OR(N93 &lt;&gt; "", J93 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
@@ -5861,6 +6211,10 @@
       <c r="B94" s="0" t="s">
         <v>147</v>
       </c>
+      <c r="V94" s="0" t="str">
+        <f aca="false">IF(OR(N94 &lt;&gt; "", J94 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="0" t="s">
@@ -5872,11 +6226,19 @@
       <c r="U95" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V95" s="0" t="str">
+        <f aca="false">IF(OR(N95 &lt;&gt; "", J95 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V96" s="0" t="str">
+        <f aca="false">IF(OR(N96 &lt;&gt; "", J96 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
@@ -5885,6 +6247,10 @@
       <c r="B97" s="0" t="s">
         <v>149</v>
       </c>
+      <c r="V97" s="0" t="str">
+        <f aca="false">IF(OR(N97 &lt;&gt; "", J97 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="0" t="s">
@@ -5899,21 +6265,37 @@
       <c r="U98" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V98" s="0" t="str">
+        <f aca="false">IF(OR(N98 &lt;&gt; "", J98 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V99" s="0" t="str">
+        <f aca="false">IF(OR(N99 &lt;&gt; "", J99 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="V100" s="0" t="str">
+        <f aca="false">IF(OR(N100 &lt;&gt; "", J100 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V101" s="0" t="str">
+        <f aca="false">IF(OR(N101 &lt;&gt; "", J101 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C102" s="0" t="s">
@@ -5931,6 +6313,10 @@
       <c r="I102" s="0" t="s">
         <v>144</v>
       </c>
+      <c r="V102" s="0" t="str">
+        <f aca="false">IF(OR(N102 &lt;&gt; "", J102 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
@@ -5939,6 +6325,10 @@
       <c r="B103" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="V103" s="0" t="str">
+        <f aca="false">IF(OR(N103 &lt;&gt; "", J103 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C104" s="0" t="s">
@@ -5953,11 +6343,19 @@
       <c r="U104" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V104" s="0" t="str">
+        <f aca="false">IF(OR(N104 &lt;&gt; "", J104 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V105" s="0" t="str">
+        <f aca="false">IF(OR(N105 &lt;&gt; "", J105 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
@@ -5966,6 +6364,10 @@
       <c r="B106" s="0" t="s">
         <v>157</v>
       </c>
+      <c r="V106" s="0" t="str">
+        <f aca="false">IF(OR(N106 &lt;&gt; "", J106 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="0" t="s">
@@ -5977,21 +6379,37 @@
       <c r="U107" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V107" s="0" t="str">
+        <f aca="false">IF(OR(N107 &lt;&gt; "", J107 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V108" s="0" t="str">
+        <f aca="false">IF(OR(N108 &lt;&gt; "", J108 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="V109" s="0" t="str">
+        <f aca="false">IF(OR(N109 &lt;&gt; "", J109 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V110" s="0" t="str">
+        <f aca="false">IF(OR(N110 &lt;&gt; "", J110 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="0" t="s">
@@ -6009,6 +6427,10 @@
       <c r="I111" s="0" t="s">
         <v>144</v>
       </c>
+      <c r="V111" s="0" t="str">
+        <f aca="false">IF(OR(N111 &lt;&gt; "", J111 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
@@ -6017,6 +6439,10 @@
       <c r="B112" s="0" t="s">
         <v>162</v>
       </c>
+      <c r="V112" s="0" t="str">
+        <f aca="false">IF(OR(N112 &lt;&gt; "", J112 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="0" t="s">
@@ -6031,11 +6457,19 @@
       <c r="U113" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V113" s="0" t="str">
+        <f aca="false">IF(OR(N113 &lt;&gt; "", J113 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V114" s="0" t="str">
+        <f aca="false">IF(OR(N114 &lt;&gt; "", J114 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
@@ -6044,6 +6478,10 @@
       <c r="B115" s="0" t="s">
         <v>164</v>
       </c>
+      <c r="V115" s="0" t="str">
+        <f aca="false">IF(OR(N115 &lt;&gt; "", J115 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C116" s="0" t="s">
@@ -6055,16 +6493,28 @@
       <c r="U116" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V116" s="0" t="str">
+        <f aca="false">IF(OR(N116 &lt;&gt; "", J116 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V117" s="0" t="str">
+        <f aca="false">IF(OR(N117 &lt;&gt; "", J117 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="V118" s="0" t="str">
+        <f aca="false">IF(OR(N118 &lt;&gt; "", J118 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C119" s="0" t="s">
@@ -6079,11 +6529,19 @@
       <c r="F119" s="0" t="s">
         <v>168</v>
       </c>
+      <c r="V119" s="0" t="str">
+        <f aca="false">IF(OR(N119 &lt;&gt; "", J119 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V120" s="0" t="str">
+        <f aca="false">IF(OR(N120 &lt;&gt; "", J120 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C121" s="0" t="s">
@@ -6092,6 +6550,10 @@
       <c r="F121" s="0" t="s">
         <v>169</v>
       </c>
+      <c r="V121" s="0" t="str">
+        <f aca="false">IF(OR(N121 &lt;&gt; "", J121 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C122" s="0" t="s">
@@ -6106,6 +6568,10 @@
       <c r="F122" s="0" t="s">
         <v>171</v>
       </c>
+      <c r="V122" s="0" t="str">
+        <f aca="false">IF(OR(N122 &lt;&gt; "", J122 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
@@ -6114,6 +6580,10 @@
       <c r="B123" s="0" t="s">
         <v>172</v>
       </c>
+      <c r="V123" s="0" t="str">
+        <f aca="false">IF(OR(N123 &lt;&gt; "", J123 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C124" s="0" t="s">
@@ -6128,21 +6598,37 @@
       <c r="F124" s="0" t="s">
         <v>174</v>
       </c>
+      <c r="V124" s="0" t="str">
+        <f aca="false">IF(OR(N124 &lt;&gt; "", J124 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V125" s="0" t="str">
+        <f aca="false">IF(OR(N125 &lt;&gt; "", J125 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="V126" s="0" t="str">
+        <f aca="false">IF(OR(N126 &lt;&gt; "", J126 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V127" s="0" t="str">
+        <f aca="false">IF(OR(N127 &lt;&gt; "", J127 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C128" s="0" t="s">
@@ -6151,6 +6637,10 @@
       <c r="F128" s="0" t="s">
         <v>175</v>
       </c>
+      <c r="V128" s="0" t="str">
+        <f aca="false">IF(OR(N128 &lt;&gt; "", J128 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C129" s="0" t="s">
@@ -6165,6 +6655,10 @@
       <c r="F129" s="0" t="s">
         <v>177</v>
       </c>
+      <c r="V129" s="0" t="str">
+        <f aca="false">IF(OR(N129 &lt;&gt; "", J129 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C130" s="0" t="s">
@@ -6179,6 +6673,10 @@
       <c r="F130" s="0" t="s">
         <v>180</v>
       </c>
+      <c r="V130" s="0" t="str">
+        <f aca="false">IF(OR(N130 &lt;&gt; "", J130 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
@@ -6187,6 +6685,10 @@
       <c r="B131" s="0" t="s">
         <v>181</v>
       </c>
+      <c r="V131" s="0" t="str">
+        <f aca="false">IF(OR(N131 &lt;&gt; "", J131 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C132" s="0" t="s">
@@ -6198,21 +6700,37 @@
       <c r="U132" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V132" s="0" t="str">
+        <f aca="false">IF(OR(N132 &lt;&gt; "", J132 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V133" s="0" t="str">
+        <f aca="false">IF(OR(N133 &lt;&gt; "", J133 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="V134" s="0" t="str">
+        <f aca="false">IF(OR(N134 &lt;&gt; "", J134 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V135" s="0" t="str">
+        <f aca="false">IF(OR(N135 &lt;&gt; "", J135 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C136" s="0" t="s">
@@ -6227,6 +6745,10 @@
       <c r="Q136" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V136" s="0" t="str">
+        <f aca="false">IF(OR(N136 &lt;&gt; "", J136 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C137" s="0" t="s">
@@ -6235,6 +6757,10 @@
       <c r="F137" s="0" t="s">
         <v>183</v>
       </c>
+      <c r="V137" s="0" t="str">
+        <f aca="false">IF(OR(N137 &lt;&gt; "", J137 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C138" s="0" t="s">
@@ -6252,6 +6778,10 @@
       <c r="J138" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V138" s="0" t="str">
+        <f aca="false">IF(OR(N138 &lt;&gt; "", J138 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
@@ -6260,6 +6790,10 @@
       <c r="B139" s="0" t="s">
         <v>186</v>
       </c>
+      <c r="V139" s="0" t="str">
+        <f aca="false">IF(OR(N139 &lt;&gt; "", J139 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C140" s="0" t="s">
@@ -6274,6 +6808,10 @@
       <c r="F140" s="0" t="s">
         <v>189</v>
       </c>
+      <c r="V140" s="0" t="str">
+        <f aca="false">IF(OR(N140 &lt;&gt; "", J140 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C141" s="0" t="s">
@@ -6288,11 +6826,19 @@
       <c r="F141" s="0" t="s">
         <v>192</v>
       </c>
+      <c r="V141" s="0" t="str">
+        <f aca="false">IF(OR(N141 &lt;&gt; "", J141 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V142" s="0" t="str">
+        <f aca="false">IF(OR(N142 &lt;&gt; "", J142 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
@@ -6301,6 +6847,10 @@
       <c r="B143" s="0" t="s">
         <v>193</v>
       </c>
+      <c r="V143" s="0" t="str">
+        <f aca="false">IF(OR(N143 &lt;&gt; "", J143 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C144" s="0" t="s">
@@ -6315,6 +6865,10 @@
       <c r="G144" s="0" t="s">
         <v>196</v>
       </c>
+      <c r="V144" s="0" t="str">
+        <f aca="false">IF(OR(N144 &lt;&gt; "", J144 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C145" s="0" t="s">
@@ -6341,21 +6895,37 @@
       <c r="Q145" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V145" s="0" t="str">
+        <f aca="false">IF(OR(N145 &lt;&gt; "", J145 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V146" s="0" t="str">
+        <f aca="false">IF(OR(N146 &lt;&gt; "", J146 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="V147" s="0" t="str">
+        <f aca="false">IF(OR(N147 &lt;&gt; "", J147 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V148" s="0" t="str">
+        <f aca="false">IF(OR(N148 &lt;&gt; "", J148 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C149" s="0" t="s">
@@ -6364,6 +6934,10 @@
       <c r="F149" s="0" t="s">
         <v>202</v>
       </c>
+      <c r="V149" s="0" t="str">
+        <f aca="false">IF(OR(N149 &lt;&gt; "", J149 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C150" s="0" t="s">
@@ -6378,8 +6952,12 @@
       <c r="F150" s="0" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="151" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V150" s="0" t="str">
+        <f aca="false">IF(OR(N150 &lt;&gt; "", J150 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C151" s="0" t="s">
         <v>72</v>
       </c>
@@ -6400,6 +6978,10 @@
       </c>
       <c r="O151" s="3" t="s">
         <v>208</v>
+      </c>
+      <c r="V151" s="0" t="str">
+        <f aca="false">IF(OR(N151 &lt;&gt; "", J151 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6409,6 +6991,10 @@
       <c r="B152" s="0" t="s">
         <v>209</v>
       </c>
+      <c r="V152" s="0" t="str">
+        <f aca="false">IF(OR(N152 &lt;&gt; "", J152 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C153" s="0" t="s">
@@ -6420,22 +7006,43 @@
       <c r="U153" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V153" s="0" t="str">
+        <f aca="false">IF(OR(N153 &lt;&gt; "", J153 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V154" s="0" t="str">
+        <f aca="false">IF(OR(N154 &lt;&gt; "", J154 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="156" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="V155" s="0" t="str">
+        <f aca="false">IF(OR(N155 &lt;&gt; "", J155 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V156" s="0" t="str">
+        <f aca="false">IF(OR(N156 &lt;&gt; "", J156 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V157" s="0" t="str">
+        <f aca="false">IF(OR(N157 &lt;&gt; "", J157 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C158" s="0" t="s">
@@ -6444,6 +7051,10 @@
       <c r="F158" s="0" t="s">
         <v>211</v>
       </c>
+      <c r="V158" s="0" t="str">
+        <f aca="false">IF(OR(N158 &lt;&gt; "", J158 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C159" s="0" t="s">
@@ -6452,6 +7063,10 @@
       <c r="F159" s="0" t="s">
         <v>212</v>
       </c>
+      <c r="V159" s="0" t="str">
+        <f aca="false">IF(OR(N159 &lt;&gt; "", J159 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C160" s="0" t="s">
@@ -6469,11 +7084,25 @@
       <c r="O160" s="3" t="s">
         <v>208</v>
       </c>
+      <c r="V160" s="0" t="str">
+        <f aca="false">IF(OR(N160 &lt;&gt; "", J160 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="V161" s="0" t="str">
+        <f aca="false">IF(OR(N161 &lt;&gt; "", J161 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V162" s="0" t="str">
+        <f aca="false">IF(OR(N162 &lt;&gt; "", J162 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
@@ -6482,6 +7111,10 @@
       <c r="B163" s="0" t="s">
         <v>216</v>
       </c>
+      <c r="V163" s="0" t="str">
+        <f aca="false">IF(OR(N163 &lt;&gt; "", J163 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
@@ -6490,11 +7123,19 @@
       <c r="B164" s="0" t="s">
         <v>217</v>
       </c>
+      <c r="V164" s="0" t="str">
+        <f aca="false">IF(OR(N164 &lt;&gt; "", J164 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V165" s="0" t="str">
+        <f aca="false">IF(OR(N165 &lt;&gt; "", J165 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C166" s="0" t="s">
@@ -6506,6 +7147,10 @@
       <c r="U166" s="0" t="s">
         <v>219</v>
       </c>
+      <c r="V166" s="0" t="str">
+        <f aca="false">IF(OR(N166 &lt;&gt; "", J166 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C167" s="0" t="s">
@@ -6532,8 +7177,12 @@
       <c r="U167" s="0" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="168" customFormat="false" ht="14.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V167" s="0" t="str">
+        <f aca="false">IF(OR(N167 &lt;&gt; "", J167 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C168" s="0" t="s">
         <v>61</v>
       </c>
@@ -6558,8 +7207,12 @@
       <c r="U168" s="0" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="169" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V168" s="0" t="str">
+        <f aca="false">IF(OR(N168 &lt;&gt; "", J168 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C169" s="0" t="s">
         <v>61</v>
       </c>
@@ -6583,6 +7236,10 @@
       </c>
       <c r="U169" s="0" t="s">
         <v>219</v>
+      </c>
+      <c r="V169" s="0" t="str">
+        <f aca="false">IF(OR(N169 &lt;&gt; "", J169 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6592,6 +7249,10 @@
       <c r="B170" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="V170" s="0" t="str">
+        <f aca="false">IF(OR(N170 &lt;&gt; "", J170 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C171" s="0" t="s">
@@ -6623,21 +7284,37 @@
       <c r="A172" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V172" s="0" t="str">
+        <f aca="false">IF(OR(N172 &lt;&gt; "", J172 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="V173" s="0" t="str">
+        <f aca="false">IF(OR(N173 &lt;&gt; "", J173 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
         <v>234</v>
       </c>
+      <c r="V174" s="0" t="str">
+        <f aca="false">IF(OR(N174 &lt;&gt; "", J174 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V175" s="0" t="str">
+        <f aca="false">IF(OR(N175 &lt;&gt; "", J175 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C176" s="0" t="s">
@@ -6649,6 +7326,10 @@
       <c r="U176" s="0" t="s">
         <v>219</v>
       </c>
+      <c r="V176" s="0" t="str">
+        <f aca="false">IF(OR(N176 &lt;&gt; "", J176 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C177" s="0" t="s">
@@ -6660,6 +7341,10 @@
       <c r="U177" s="0" t="s">
         <v>219</v>
       </c>
+      <c r="V177" s="0" t="str">
+        <f aca="false">IF(OR(N177 &lt;&gt; "", J177 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C178" s="0" t="s">
@@ -6677,6 +7362,10 @@
       <c r="U178" s="0" t="s">
         <v>219</v>
       </c>
+      <c r="V178" s="0" t="str">
+        <f aca="false">IF(OR(N178 &lt;&gt; "", J178 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C179" s="0" t="s">
@@ -6694,6 +7383,10 @@
       <c r="U179" s="0" t="s">
         <v>219</v>
       </c>
+      <c r="V179" s="0" t="str">
+        <f aca="false">IF(OR(N179 &lt;&gt; "", J179 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
@@ -6702,6 +7395,10 @@
       <c r="B180" s="0" t="s">
         <v>243</v>
       </c>
+      <c r="V180" s="0" t="str">
+        <f aca="false">IF(OR(N180 &lt;&gt; "", J180 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C181" s="0" t="s">
@@ -6713,11 +7410,19 @@
       <c r="U181" s="0" t="s">
         <v>219</v>
       </c>
+      <c r="V181" s="0" t="str">
+        <f aca="false">IF(OR(N181 &lt;&gt; "", J181 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V182" s="0" t="str">
+        <f aca="false">IF(OR(N182 &lt;&gt; "", J182 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
@@ -6726,6 +7431,10 @@
       <c r="B183" s="0" t="s">
         <v>245</v>
       </c>
+      <c r="V183" s="0" t="str">
+        <f aca="false">IF(OR(N183 &lt;&gt; "", J183 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C184" s="0" t="s">
@@ -6743,6 +7452,10 @@
       <c r="U184" s="0" t="s">
         <v>219</v>
       </c>
+      <c r="V184" s="0" t="str">
+        <f aca="false">IF(OR(N184 &lt;&gt; "", J184 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
@@ -6751,6 +7464,10 @@
       <c r="B185" s="0" t="s">
         <v>249</v>
       </c>
+      <c r="V185" s="0" t="str">
+        <f aca="false">IF(OR(N185 &lt;&gt; "", J185 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C186" s="0" t="s">
@@ -6762,16 +7479,28 @@
       <c r="U186" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V186" s="0" t="str">
+        <f aca="false">IF(OR(N186 &lt;&gt; "", J186 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V187" s="0" t="str">
+        <f aca="false">IF(OR(N187 &lt;&gt; "", J187 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V188" s="0" t="str">
+        <f aca="false">IF(OR(N188 &lt;&gt; "", J188 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
@@ -6780,6 +7509,10 @@
       <c r="B189" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="V189" s="0" t="str">
+        <f aca="false">IF(OR(N189 &lt;&gt; "", J189 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C190" s="0" t="s">
@@ -6797,6 +7530,10 @@
       <c r="U190" s="0" t="s">
         <v>219</v>
       </c>
+      <c r="V190" s="0" t="str">
+        <f aca="false">IF(OR(N190 &lt;&gt; "", J190 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
@@ -6805,6 +7542,10 @@
       <c r="B191" s="0" t="s">
         <v>255</v>
       </c>
+      <c r="V191" s="0" t="str">
+        <f aca="false">IF(OR(N191 &lt;&gt; "", J191 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C192" s="0" t="s">
@@ -6816,16 +7557,28 @@
       <c r="U192" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V192" s="0" t="str">
+        <f aca="false">IF(OR(N192 &lt;&gt; "", J192 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V193" s="0" t="str">
+        <f aca="false">IF(OR(N193 &lt;&gt; "", J193 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V194" s="0" t="str">
+        <f aca="false">IF(OR(N194 &lt;&gt; "", J194 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C195" s="0" t="s">
@@ -6843,6 +7596,10 @@
       <c r="U195" s="0" t="s">
         <v>219</v>
       </c>
+      <c r="V195" s="0" t="str">
+        <f aca="false">IF(OR(N195 &lt;&gt; "", J195 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
@@ -6851,6 +7608,10 @@
       <c r="B196" s="0" t="s">
         <v>258</v>
       </c>
+      <c r="V196" s="0" t="str">
+        <f aca="false">IF(OR(N196 &lt;&gt; "", J196 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C197" s="0" t="s">
@@ -6868,11 +7629,19 @@
       <c r="U197" s="0" t="s">
         <v>219</v>
       </c>
+      <c r="V197" s="0" t="str">
+        <f aca="false">IF(OR(N197 &lt;&gt; "", J197 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V198" s="0" t="str">
+        <f aca="false">IF(OR(N198 &lt;&gt; "", J198 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
@@ -6881,6 +7650,10 @@
       <c r="B199" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="V199" s="0" t="str">
+        <f aca="false">IF(OR(N199 &lt;&gt; "", J199 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C200" s="0" t="s">
@@ -6898,6 +7671,10 @@
       <c r="U200" s="0" t="s">
         <v>219</v>
       </c>
+      <c r="V200" s="0" t="str">
+        <f aca="false">IF(OR(N200 &lt;&gt; "", J200 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C201" s="0" t="s">
@@ -6915,6 +7692,10 @@
       <c r="U201" s="0" t="s">
         <v>219</v>
       </c>
+      <c r="V201" s="0" t="str">
+        <f aca="false">IF(OR(N201 &lt;&gt; "", J201 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
@@ -6923,6 +7704,10 @@
       <c r="B202" s="0" t="s">
         <v>268</v>
       </c>
+      <c r="V202" s="0" t="str">
+        <f aca="false">IF(OR(N202 &lt;&gt; "", J202 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C203" s="0" t="s">
@@ -6940,16 +7725,28 @@
       <c r="U203" s="0" t="s">
         <v>219</v>
       </c>
+      <c r="V203" s="0" t="str">
+        <f aca="false">IF(OR(N203 &lt;&gt; "", J203 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V204" s="0" t="str">
+        <f aca="false">IF(OR(N204 &lt;&gt; "", J204 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V205" s="0" t="str">
+        <f aca="false">IF(OR(N205 &lt;&gt; "", J205 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C206" s="0" t="s">
@@ -6970,21 +7767,37 @@
       <c r="U206" s="0" t="s">
         <v>219</v>
       </c>
+      <c r="V206" s="0" t="str">
+        <f aca="false">IF(OR(N206 &lt;&gt; "", J206 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="V207" s="0" t="str">
+        <f aca="false">IF(OR(N207 &lt;&gt; "", J207 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V208" s="0" t="str">
+        <f aca="false">IF(OR(N208 &lt;&gt; "", J208 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V209" s="0" t="str">
+        <f aca="false">IF(OR(N209 &lt;&gt; "", J209 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C210" s="0" t="s">
@@ -6996,6 +7809,10 @@
       <c r="U210" s="0" t="s">
         <v>276</v>
       </c>
+      <c r="V210" s="0" t="str">
+        <f aca="false">IF(OR(N210 &lt;&gt; "", J210 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
@@ -7004,6 +7821,10 @@
       <c r="B211" s="0" t="s">
         <v>277</v>
       </c>
+      <c r="V211" s="0" t="str">
+        <f aca="false">IF(OR(N211 &lt;&gt; "", J211 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C212" s="0" t="s">
@@ -7021,6 +7842,10 @@
       <c r="U212" s="0" t="s">
         <v>276</v>
       </c>
+      <c r="V212" s="0" t="str">
+        <f aca="false">IF(OR(N212 &lt;&gt; "", J212 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C213" s="0" t="s">
@@ -7038,11 +7863,19 @@
       <c r="U213" s="0" t="s">
         <v>276</v>
       </c>
+      <c r="V213" s="0" t="str">
+        <f aca="false">IF(OR(N213 &lt;&gt; "", J213 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V214" s="0" t="str">
+        <f aca="false">IF(OR(N214 &lt;&gt; "", J214 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
@@ -7051,6 +7884,10 @@
       <c r="B215" s="0" t="s">
         <v>283</v>
       </c>
+      <c r="V215" s="0" t="str">
+        <f aca="false">IF(OR(N215 &lt;&gt; "", J215 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C216" s="0" t="s">
@@ -7068,6 +7905,10 @@
       <c r="U216" s="0" t="s">
         <v>276</v>
       </c>
+      <c r="V216" s="0" t="str">
+        <f aca="false">IF(OR(N216 &lt;&gt; "", J216 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C217" s="0" t="s">
@@ -7079,6 +7920,10 @@
       <c r="U217" s="0" t="s">
         <v>276</v>
       </c>
+      <c r="V217" s="0" t="str">
+        <f aca="false">IF(OR(N217 &lt;&gt; "", J217 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
@@ -7087,6 +7932,10 @@
       <c r="B218" s="0" t="s">
         <v>287</v>
       </c>
+      <c r="V218" s="0" t="str">
+        <f aca="false">IF(OR(N218 &lt;&gt; "", J218 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C219" s="0" t="s">
@@ -7098,11 +7947,19 @@
       <c r="H219" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="V219" s="0" t="str">
+        <f aca="false">IF(OR(N219 &lt;&gt; "", J219 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="V220" s="0" t="str">
+        <f aca="false">IF(OR(N220 &lt;&gt; "", J220 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C221" s="0" t="s">
@@ -7117,11 +7974,19 @@
       <c r="U221" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V221" s="0" t="str">
+        <f aca="false">IF(OR(N221 &lt;&gt; "", J221 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V222" s="0" t="str">
+        <f aca="false">IF(OR(N222 &lt;&gt; "", J222 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C223" s="0" t="s">
@@ -7136,6 +8001,10 @@
       <c r="U223" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V223" s="0" t="str">
+        <f aca="false">IF(OR(N223 &lt;&gt; "", J223 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C224" s="0" t="s">
@@ -7153,6 +8022,10 @@
       <c r="U224" s="0" t="s">
         <v>276</v>
       </c>
+      <c r="V224" s="0" t="str">
+        <f aca="false">IF(OR(N224 &lt;&gt; "", J224 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
@@ -7161,6 +8034,10 @@
       <c r="B225" s="0" t="s">
         <v>294</v>
       </c>
+      <c r="V225" s="0" t="str">
+        <f aca="false">IF(OR(N225 &lt;&gt; "", J225 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C226" s="0" t="s">
@@ -7178,11 +8055,19 @@
       <c r="U226" s="0" t="s">
         <v>276</v>
       </c>
+      <c r="V226" s="0" t="str">
+        <f aca="false">IF(OR(N226 &lt;&gt; "", J226 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V227" s="0" t="str">
+        <f aca="false">IF(OR(N227 &lt;&gt; "", J227 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C228" s="0" t="s">
@@ -7200,6 +8085,10 @@
       <c r="U228" s="0" t="s">
         <v>276</v>
       </c>
+      <c r="V228" s="0" t="str">
+        <f aca="false">IF(OR(N228 &lt;&gt; "", J228 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C229" s="0" t="s">
@@ -7217,21 +8106,43 @@
       <c r="U229" s="0" t="s">
         <v>276</v>
       </c>
+      <c r="V229" s="0" t="str">
+        <f aca="false">IF(OR(N229 &lt;&gt; "", J229 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V230" s="0" t="str">
+        <f aca="false">IF(OR(N230 &lt;&gt; "", J230 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="V231" s="0" t="str">
+        <f aca="false">IF(OR(N231 &lt;&gt; "", J231 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V232" s="0" t="str">
+        <f aca="false">IF(OR(N232 &lt;&gt; "", J232 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V233" s="0" t="str">
+        <f aca="false">IF(OR(N233 &lt;&gt; "", J233 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
@@ -7240,6 +8151,10 @@
       <c r="B234" s="0" t="s">
         <v>276</v>
       </c>
+      <c r="V234" s="0" t="str">
+        <f aca="false">IF(OR(N234 &lt;&gt; "", J234 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
@@ -7248,11 +8163,19 @@
       <c r="B235" s="0" t="s">
         <v>303</v>
       </c>
+      <c r="V235" s="0" t="str">
+        <f aca="false">IF(OR(N235 &lt;&gt; "", J235 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V236" s="0" t="str">
+        <f aca="false">IF(OR(N236 &lt;&gt; "", J236 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C237" s="0" t="s">
@@ -7264,8 +8187,12 @@
       <c r="U237" s="0" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="238" customFormat="false" ht="14.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V237" s="0" t="str">
+        <f aca="false">IF(OR(N237 &lt;&gt; "", J237 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C238" s="0" t="s">
         <v>61</v>
       </c>
@@ -7290,8 +8217,12 @@
       <c r="U238" s="0" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="239" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V238" s="0" t="str">
+        <f aca="false">IF(OR(N238 &lt;&gt; "", J238 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C239" s="0" t="s">
         <v>61</v>
       </c>
@@ -7315,6 +8246,10 @@
       </c>
       <c r="U239" s="0" t="s">
         <v>304</v>
+      </c>
+      <c r="V239" s="0" t="str">
+        <f aca="false">IF(OR(N239 &lt;&gt; "", J239 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7324,6 +8259,10 @@
       <c r="B240" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="V240" s="0" t="str">
+        <f aca="false">IF(OR(N240 &lt;&gt; "", J240 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C241" s="0" t="s">
@@ -7352,21 +8291,37 @@
       <c r="A242" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V242" s="0" t="str">
+        <f aca="false">IF(OR(N242 &lt;&gt; "", J242 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="V243" s="0" t="str">
+        <f aca="false">IF(OR(N243 &lt;&gt; "", J243 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
         <v>315</v>
       </c>
+      <c r="V244" s="0" t="str">
+        <f aca="false">IF(OR(N244 &lt;&gt; "", J244 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V245" s="0" t="str">
+        <f aca="false">IF(OR(N245 &lt;&gt; "", J245 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C246" s="0" t="s">
@@ -7378,6 +8333,10 @@
       <c r="U246" s="0" t="s">
         <v>304</v>
       </c>
+      <c r="V246" s="0" t="str">
+        <f aca="false">IF(OR(N246 &lt;&gt; "", J246 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C247" s="0" t="s">
@@ -7389,6 +8348,10 @@
       <c r="U247" s="0" t="s">
         <v>304</v>
       </c>
+      <c r="V247" s="0" t="str">
+        <f aca="false">IF(OR(N247 &lt;&gt; "", J247 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C248" s="0" t="s">
@@ -7406,6 +8369,10 @@
       <c r="U248" s="0" t="s">
         <v>304</v>
       </c>
+      <c r="V248" s="0" t="str">
+        <f aca="false">IF(OR(N248 &lt;&gt; "", J248 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C249" s="0" t="s">
@@ -7423,6 +8390,10 @@
       <c r="U249" s="0" t="s">
         <v>304</v>
       </c>
+      <c r="V249" s="0" t="str">
+        <f aca="false">IF(OR(N249 &lt;&gt; "", J249 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
@@ -7431,6 +8402,10 @@
       <c r="B250" s="0" t="s">
         <v>320</v>
       </c>
+      <c r="V250" s="0" t="str">
+        <f aca="false">IF(OR(N250 &lt;&gt; "", J250 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C251" s="0" t="s">
@@ -7442,11 +8417,19 @@
       <c r="U251" s="0" t="s">
         <v>304</v>
       </c>
+      <c r="V251" s="0" t="str">
+        <f aca="false">IF(OR(N251 &lt;&gt; "", J251 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V252" s="0" t="str">
+        <f aca="false">IF(OR(N252 &lt;&gt; "", J252 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
@@ -7455,6 +8438,10 @@
       <c r="B253" s="0" t="s">
         <v>322</v>
       </c>
+      <c r="V253" s="0" t="str">
+        <f aca="false">IF(OR(N253 &lt;&gt; "", J253 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C254" s="0" t="s">
@@ -7472,11 +8459,19 @@
       <c r="U254" s="0" t="s">
         <v>304</v>
       </c>
+      <c r="V254" s="0" t="str">
+        <f aca="false">IF(OR(N254 &lt;&gt; "", J254 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V255" s="0" t="str">
+        <f aca="false">IF(OR(N255 &lt;&gt; "", J255 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
@@ -7485,6 +8480,10 @@
       <c r="B256" s="0" t="s">
         <v>324</v>
       </c>
+      <c r="V256" s="0" t="str">
+        <f aca="false">IF(OR(N256 &lt;&gt; "", J256 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C257" s="0" t="s">
@@ -7502,11 +8501,19 @@
       <c r="U257" s="0" t="s">
         <v>304</v>
       </c>
+      <c r="V257" s="0" t="str">
+        <f aca="false">IF(OR(N257 &lt;&gt; "", J257 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V258" s="0" t="str">
+        <f aca="false">IF(OR(N258 &lt;&gt; "", J258 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C259" s="0" t="s">
@@ -7524,6 +8531,10 @@
       <c r="U259" s="0" t="s">
         <v>304</v>
       </c>
+      <c r="V259" s="0" t="str">
+        <f aca="false">IF(OR(N259 &lt;&gt; "", J259 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
@@ -7532,6 +8543,10 @@
       <c r="B260" s="0" t="s">
         <v>328</v>
       </c>
+      <c r="V260" s="0" t="str">
+        <f aca="false">IF(OR(N260 &lt;&gt; "", J260 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C261" s="0" t="s">
@@ -7549,11 +8564,19 @@
       <c r="U261" s="0" t="s">
         <v>304</v>
       </c>
+      <c r="V261" s="0" t="str">
+        <f aca="false">IF(OR(N261 &lt;&gt; "", J261 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V262" s="0" t="str">
+        <f aca="false">IF(OR(N262 &lt;&gt; "", J262 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
@@ -7562,6 +8585,10 @@
       <c r="B263" s="0" t="s">
         <v>330</v>
       </c>
+      <c r="V263" s="0" t="str">
+        <f aca="false">IF(OR(N263 &lt;&gt; "", J263 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C264" s="0" t="s">
@@ -7579,6 +8606,10 @@
       <c r="U264" s="0" t="s">
         <v>304</v>
       </c>
+      <c r="V264" s="0" t="str">
+        <f aca="false">IF(OR(N264 &lt;&gt; "", J264 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C265" s="0" t="s">
@@ -7596,6 +8627,10 @@
       <c r="U265" s="0" t="s">
         <v>304</v>
       </c>
+      <c r="V265" s="0" t="str">
+        <f aca="false">IF(OR(N265 &lt;&gt; "", J265 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
@@ -7604,6 +8639,10 @@
       <c r="B266" s="0" t="s">
         <v>333</v>
       </c>
+      <c r="V266" s="0" t="str">
+        <f aca="false">IF(OR(N266 &lt;&gt; "", J266 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C267" s="0" t="s">
@@ -7621,16 +8660,28 @@
       <c r="U267" s="0" t="s">
         <v>304</v>
       </c>
+      <c r="V267" s="0" t="str">
+        <f aca="false">IF(OR(N267 &lt;&gt; "", J267 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V268" s="0" t="str">
+        <f aca="false">IF(OR(N268 &lt;&gt; "", J268 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V269" s="0" t="str">
+        <f aca="false">IF(OR(N269 &lt;&gt; "", J269 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C270" s="0" t="s">
@@ -7648,21 +8699,43 @@
       <c r="U270" s="0" t="s">
         <v>304</v>
       </c>
+      <c r="V270" s="0" t="str">
+        <f aca="false">IF(OR(N270 &lt;&gt; "", J270 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="V271" s="0" t="str">
+        <f aca="false">IF(OR(N271 &lt;&gt; "", J271 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
         <v>337</v>
       </c>
+      <c r="V272" s="0" t="str">
+        <f aca="false">IF(OR(N272 &lt;&gt; "", J272 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V273" s="0" t="str">
+        <f aca="false">IF(OR(N273 &lt;&gt; "", J273 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V274" s="0" t="str">
+        <f aca="false">IF(OR(N274 &lt;&gt; "", J274 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C275" s="0" t="s">
@@ -7674,6 +8747,10 @@
       <c r="U275" s="0" t="s">
         <v>216</v>
       </c>
+      <c r="V275" s="0" t="str">
+        <f aca="false">IF(OR(N275 &lt;&gt; "", J275 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
@@ -7682,6 +8759,10 @@
       <c r="B276" s="0" t="s">
         <v>338</v>
       </c>
+      <c r="V276" s="0" t="str">
+        <f aca="false">IF(OR(N276 &lt;&gt; "", J276 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C277" s="0" t="s">
@@ -7699,6 +8780,10 @@
       <c r="U277" s="0" t="s">
         <v>216</v>
       </c>
+      <c r="V277" s="0" t="str">
+        <f aca="false">IF(OR(N277 &lt;&gt; "", J277 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C278" s="0" t="s">
@@ -7716,11 +8801,19 @@
       <c r="U278" s="0" t="s">
         <v>216</v>
       </c>
+      <c r="V278" s="0" t="str">
+        <f aca="false">IF(OR(N278 &lt;&gt; "", J278 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V279" s="0" t="str">
+        <f aca="false">IF(OR(N279 &lt;&gt; "", J279 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
@@ -7729,6 +8822,10 @@
       <c r="B280" s="0" t="s">
         <v>343</v>
       </c>
+      <c r="V280" s="0" t="str">
+        <f aca="false">IF(OR(N280 &lt;&gt; "", J280 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C281" s="0" t="s">
@@ -7746,6 +8843,10 @@
       <c r="U281" s="0" t="s">
         <v>216</v>
       </c>
+      <c r="V281" s="0" t="str">
+        <f aca="false">IF(OR(N281 &lt;&gt; "", J281 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C282" s="0" t="s">
@@ -7757,13 +8858,21 @@
       <c r="U282" s="0" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="283" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V282" s="0" t="str">
+        <f aca="false">IF(OR(N282 &lt;&gt; "", J282 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
         <v>54</v>
       </c>
       <c r="B283" s="0" t="s">
         <v>347</v>
+      </c>
+      <c r="V283" s="0" t="str">
+        <f aca="false">IF(OR(N283 &lt;&gt; "", J283 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7776,11 +8885,19 @@
       <c r="H284" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="V284" s="0" t="str">
+        <f aca="false">IF(OR(N284 &lt;&gt; "", J284 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="V285" s="0" t="str">
+        <f aca="false">IF(OR(N285 &lt;&gt; "", J285 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C286" s="0" t="s">
@@ -7795,11 +8912,19 @@
       <c r="U286" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V286" s="0" t="str">
+        <f aca="false">IF(OR(N286 &lt;&gt; "", J286 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V287" s="0" t="str">
+        <f aca="false">IF(OR(N287 &lt;&gt; "", J287 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C288" s="0" t="s">
@@ -7814,6 +8939,10 @@
       <c r="U288" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V288" s="0" t="str">
+        <f aca="false">IF(OR(N288 &lt;&gt; "", J288 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C289" s="0" t="s">
@@ -7831,6 +8960,10 @@
       <c r="U289" s="0" t="s">
         <v>216</v>
       </c>
+      <c r="V289" s="0" t="str">
+        <f aca="false">IF(OR(N289 &lt;&gt; "", J289 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
@@ -7839,6 +8972,10 @@
       <c r="B290" s="0" t="s">
         <v>352</v>
       </c>
+      <c r="V290" s="0" t="str">
+        <f aca="false">IF(OR(N290 &lt;&gt; "", J290 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C291" s="0" t="s">
@@ -7856,32 +8993,61 @@
       <c r="U291" s="0" t="s">
         <v>216</v>
       </c>
+      <c r="V291" s="0" t="str">
+        <f aca="false">IF(OR(N291 &lt;&gt; "", J291 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V292" s="0" t="str">
+        <f aca="false">IF(OR(N292 &lt;&gt; "", J292 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V293" s="0" t="str">
+        <f aca="false">IF(OR(N293 &lt;&gt; "", J293 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="V294" s="0" t="str">
+        <f aca="false">IF(OR(N294 &lt;&gt; "", J294 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="296" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="V295" s="0" t="str">
+        <f aca="false">IF(OR(N295 &lt;&gt; "", J295 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="296" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V296" s="0" t="str">
+        <f aca="false">IF(OR(N296 &lt;&gt; "", J296 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V297" s="0" t="str">
+        <f aca="false">IF(OR(N297 &lt;&gt; "", J297 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C298" s="0" t="s">
@@ -7896,6 +9062,10 @@
       <c r="Q298" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V298" s="0" t="str">
+        <f aca="false">IF(OR(N298 &lt;&gt; "", J298 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C299" s="0" t="s">
@@ -7904,6 +9074,10 @@
       <c r="F299" s="0" t="s">
         <v>355</v>
       </c>
+      <c r="V299" s="0" t="str">
+        <f aca="false">IF(OR(N299 &lt;&gt; "", J299 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C300" s="0" t="s">
@@ -7921,6 +9095,10 @@
       <c r="J300" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V300" s="0" t="str">
+        <f aca="false">IF(OR(N300 &lt;&gt; "", J300 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
@@ -7929,6 +9107,10 @@
       <c r="B301" s="0" t="s">
         <v>358</v>
       </c>
+      <c r="V301" s="0" t="str">
+        <f aca="false">IF(OR(N301 &lt;&gt; "", J301 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C302" s="0" t="s">
@@ -7943,6 +9125,10 @@
       <c r="J302" s="0" t="s">
         <v>358</v>
       </c>
+      <c r="V302" s="0" t="str">
+        <f aca="false">IF(OR(N302 &lt;&gt; "", J302 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C303" s="0" t="s">
@@ -7954,6 +9140,10 @@
       <c r="U303" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V303" s="0" t="str">
+        <f aca="false">IF(OR(N303 &lt;&gt; "", J303 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C304" s="0" t="s">
@@ -7977,21 +9167,43 @@
       <c r="Q304" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V304" s="0" t="str">
+        <f aca="false">IF(OR(N304 &lt;&gt; "", J304 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V305" s="0" t="str">
+        <f aca="false">IF(OR(N305 &lt;&gt; "", J305 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="V306" s="0" t="str">
+        <f aca="false">IF(OR(N306 &lt;&gt; "", J306 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V307" s="0" t="str">
+        <f aca="false">IF(OR(N307 &lt;&gt; "", J307 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V308" s="0" t="str">
+        <f aca="false">IF(OR(N308 &lt;&gt; "", J308 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C309" s="0" t="s">
@@ -8006,6 +9218,10 @@
       <c r="Q309" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V309" s="0" t="str">
+        <f aca="false">IF(OR(N309 &lt;&gt; "", J309 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C310" s="0" t="s">
@@ -8014,6 +9230,10 @@
       <c r="F310" s="0" t="s">
         <v>367</v>
       </c>
+      <c r="V310" s="0" t="str">
+        <f aca="false">IF(OR(N310 &lt;&gt; "", J310 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
@@ -8022,6 +9242,10 @@
       <c r="B311" s="0" t="s">
         <v>276</v>
       </c>
+      <c r="V311" s="0" t="str">
+        <f aca="false">IF(OR(N311 &lt;&gt; "", J311 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C312" s="0" t="s">
@@ -8036,6 +9260,10 @@
       <c r="F312" s="0" t="s">
         <v>369</v>
       </c>
+      <c r="V312" s="0" t="str">
+        <f aca="false">IF(OR(N312 &lt;&gt; "", J312 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
@@ -8044,6 +9272,10 @@
       <c r="B313" s="0" t="s">
         <v>370</v>
       </c>
+      <c r="V313" s="0" t="str">
+        <f aca="false">IF(OR(N313 &lt;&gt; "", J313 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C314" s="0" t="s">
@@ -8058,11 +9290,19 @@
       <c r="F314" s="0" t="s">
         <v>373</v>
       </c>
+      <c r="V314" s="0" t="str">
+        <f aca="false">IF(OR(N314 &lt;&gt; "", J314 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V315" s="0" t="str">
+        <f aca="false">IF(OR(N315 &lt;&gt; "", J315 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
@@ -8071,6 +9311,10 @@
       <c r="B316" s="0" t="s">
         <v>374</v>
       </c>
+      <c r="V316" s="0" t="str">
+        <f aca="false">IF(OR(N316 &lt;&gt; "", J316 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C317" s="0" t="s">
@@ -8085,6 +9329,10 @@
       <c r="F317" s="0" t="s">
         <v>376</v>
       </c>
+      <c r="V317" s="0" t="str">
+        <f aca="false">IF(OR(N317 &lt;&gt; "", J317 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
@@ -8093,6 +9341,10 @@
       <c r="B318" s="0" t="s">
         <v>377</v>
       </c>
+      <c r="V318" s="0" t="str">
+        <f aca="false">IF(OR(N318 &lt;&gt; "", J318 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C319" s="0" t="s">
@@ -8113,21 +9365,37 @@
       <c r="O319" s="0" t="s">
         <v>382</v>
       </c>
+      <c r="V319" s="0" t="str">
+        <f aca="false">IF(OR(N319 &lt;&gt; "", J319 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V320" s="0" t="str">
+        <f aca="false">IF(OR(N320 &lt;&gt; "", J320 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V321" s="0" t="str">
+        <f aca="false">IF(OR(N321 &lt;&gt; "", J321 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V322" s="0" t="str">
+        <f aca="false">IF(OR(N322 &lt;&gt; "", J322 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C323" s="0" t="s">
@@ -8148,6 +9416,10 @@
       <c r="P323" s="0" t="s">
         <v>386</v>
       </c>
+      <c r="V323" s="0" t="str">
+        <f aca="false">IF(OR(N323 &lt;&gt; "", J323 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
@@ -8156,6 +9428,10 @@
       <c r="B324" s="0" t="s">
         <v>387</v>
       </c>
+      <c r="V324" s="0" t="str">
+        <f aca="false">IF(OR(N324 &lt;&gt; "", J324 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C325" s="0" t="s">
@@ -8167,6 +9443,10 @@
       <c r="U325" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V325" s="0" t="str">
+        <f aca="false">IF(OR(N325 &lt;&gt; "", J325 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C326" s="0" t="s">
@@ -8190,21 +9470,37 @@
       <c r="Q326" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V326" s="0" t="str">
+        <f aca="false">IF(OR(N326 &lt;&gt; "", J326 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V327" s="0" t="str">
+        <f aca="false">IF(OR(N327 &lt;&gt; "", J327 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="V328" s="0" t="str">
+        <f aca="false">IF(OR(N328 &lt;&gt; "", J328 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V329" s="0" t="str">
+        <f aca="false">IF(OR(N329 &lt;&gt; "", J329 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C330" s="0" t="s">
@@ -8222,16 +9518,28 @@
       <c r="I330" s="0" t="s">
         <v>144</v>
       </c>
+      <c r="V330" s="0" t="str">
+        <f aca="false">IF(OR(N330 &lt;&gt; "", J330 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="V331" s="0" t="str">
+        <f aca="false">IF(OR(N331 &lt;&gt; "", J331 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V332" s="0" t="str">
+        <f aca="false">IF(OR(N332 &lt;&gt; "", J332 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C333" s="0" t="s">
@@ -8240,6 +9548,10 @@
       <c r="F333" s="0" t="s">
         <v>397</v>
       </c>
+      <c r="V333" s="0" t="str">
+        <f aca="false">IF(OR(N333 &lt;&gt; "", J333 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C334" s="0" t="s">
@@ -8266,6 +9578,10 @@
       <c r="O334" s="0" t="s">
         <v>403</v>
       </c>
+      <c r="V334" s="0" t="str">
+        <f aca="false">IF(OR(N334 &lt;&gt; "", J334 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C335" s="0" t="s">
@@ -8280,16 +9596,28 @@
       <c r="U335" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V335" s="0" t="str">
+        <f aca="false">IF(OR(N335 &lt;&gt; "", J335 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="V336" s="0" t="str">
+        <f aca="false">IF(OR(N336 &lt;&gt; "", J336 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V337" s="0" t="str">
+        <f aca="false">IF(OR(N337 &lt;&gt; "", J337 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C338" s="0" t="s">
@@ -8304,6 +9632,10 @@
       <c r="Q338" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V338" s="0" t="str">
+        <f aca="false">IF(OR(N338 &lt;&gt; "", J338 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C339" s="0" t="s">
@@ -8312,6 +9644,10 @@
       <c r="F339" s="0" t="s">
         <v>406</v>
       </c>
+      <c r="V339" s="0" t="str">
+        <f aca="false">IF(OR(N339 &lt;&gt; "", J339 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C340" s="0" t="s">
@@ -8329,6 +9665,10 @@
       <c r="J340" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V340" s="0" t="str">
+        <f aca="false">IF(OR(N340 &lt;&gt; "", J340 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
@@ -8337,6 +9677,10 @@
       <c r="B341" s="0" t="s">
         <v>410</v>
       </c>
+      <c r="V341" s="0" t="str">
+        <f aca="false">IF(OR(N341 &lt;&gt; "", J341 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C342" s="0" t="s">
@@ -8351,6 +9695,10 @@
       <c r="J342" s="0" t="s">
         <v>410</v>
       </c>
+      <c r="V342" s="0" t="str">
+        <f aca="false">IF(OR(N342 &lt;&gt; "", J342 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C343" s="0" t="s">
@@ -8359,6 +9707,10 @@
       <c r="F343" s="0" t="s">
         <v>412</v>
       </c>
+      <c r="V343" s="0" t="str">
+        <f aca="false">IF(OR(N343 &lt;&gt; "", J343 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C344" s="0" t="s">
@@ -8367,6 +9719,10 @@
       <c r="F344" s="0" t="s">
         <v>413</v>
       </c>
+      <c r="V344" s="0" t="str">
+        <f aca="false">IF(OR(N344 &lt;&gt; "", J344 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C345" s="0" t="s">
@@ -8381,6 +9737,10 @@
       <c r="F345" s="0" t="s">
         <v>415</v>
       </c>
+      <c r="V345" s="0" t="str">
+        <f aca="false">IF(OR(N345 &lt;&gt; "", J345 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C346" s="0" t="s">
@@ -8413,21 +9773,37 @@
       <c r="Q346" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V346" s="0" t="str">
+        <f aca="false">IF(OR(N346 &lt;&gt; "", J346 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V347" s="0" t="str">
+        <f aca="false">IF(OR(N347 &lt;&gt; "", J347 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="V348" s="0" t="str">
+        <f aca="false">IF(OR(N348 &lt;&gt; "", J348 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V349" s="0" t="str">
+        <f aca="false">IF(OR(N349 &lt;&gt; "", J349 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C350" s="0" t="s">
@@ -8436,6 +9812,10 @@
       <c r="F350" s="0" t="s">
         <v>422</v>
       </c>
+      <c r="V350" s="0" t="str">
+        <f aca="false">IF(OR(N350 &lt;&gt; "", J350 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C351" s="0" t="s">
@@ -8444,6 +9824,10 @@
       <c r="F351" s="0" t="s">
         <v>423</v>
       </c>
+      <c r="V351" s="0" t="str">
+        <f aca="false">IF(OR(N351 &lt;&gt; "", J351 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
@@ -8452,6 +9836,10 @@
       <c r="B352" s="0" t="s">
         <v>424</v>
       </c>
+      <c r="V352" s="0" t="str">
+        <f aca="false">IF(OR(N352 &lt;&gt; "", J352 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C353" s="0" t="s">
@@ -8463,11 +9851,19 @@
       <c r="H353" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="V353" s="0" t="str">
+        <f aca="false">IF(OR(N353 &lt;&gt; "", J353 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="V354" s="0" t="str">
+        <f aca="false">IF(OR(N354 &lt;&gt; "", J354 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C355" s="0" t="s">
@@ -8482,11 +9878,19 @@
       <c r="U355" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V355" s="0" t="str">
+        <f aca="false">IF(OR(N355 &lt;&gt; "", J355 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V356" s="0" t="str">
+        <f aca="false">IF(OR(N356 &lt;&gt; "", J356 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C357" s="0" t="s">
@@ -8504,6 +9908,10 @@
       <c r="U357" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V357" s="0" t="str">
+        <f aca="false">IF(OR(N357 &lt;&gt; "", J357 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C358" s="0" t="s">
@@ -8512,13 +9920,21 @@
       <c r="F358" s="0" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="359" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V358" s="0" t="str">
+        <f aca="false">IF(OR(N358 &lt;&gt; "", J358 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
         <v>54</v>
       </c>
       <c r="B359" s="0" t="s">
         <v>431</v>
+      </c>
+      <c r="V359" s="0" t="str">
+        <f aca="false">IF(OR(N359 &lt;&gt; "", J359 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8531,11 +9947,19 @@
       <c r="H360" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="V360" s="0" t="str">
+        <f aca="false">IF(OR(N360 &lt;&gt; "", J360 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="V361" s="0" t="str">
+        <f aca="false">IF(OR(N361 &lt;&gt; "", J361 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C362" s="0" t="s">
@@ -8550,11 +9974,19 @@
       <c r="U362" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V362" s="0" t="str">
+        <f aca="false">IF(OR(N362 &lt;&gt; "", J362 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V363" s="0" t="str">
+        <f aca="false">IF(OR(N363 &lt;&gt; "", J363 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C364" s="0" t="s">
@@ -8572,6 +10004,10 @@
       <c r="U364" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V364" s="0" t="str">
+        <f aca="false">IF(OR(N364 &lt;&gt; "", J364 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
@@ -8580,6 +10016,10 @@
       <c r="B365" s="0" t="s">
         <v>435</v>
       </c>
+      <c r="V365" s="0" t="str">
+        <f aca="false">IF(OR(N365 &lt;&gt; "", J365 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C366" s="0" t="s">
@@ -8594,6 +10034,10 @@
       <c r="F366" s="0" t="s">
         <v>437</v>
       </c>
+      <c r="V366" s="0" t="str">
+        <f aca="false">IF(OR(N366 &lt;&gt; "", J366 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C367" s="0" t="s">
@@ -8602,6 +10046,10 @@
       <c r="F367" s="0" t="s">
         <v>438</v>
       </c>
+      <c r="V367" s="0" t="str">
+        <f aca="false">IF(OR(N367 &lt;&gt; "", J367 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
@@ -8610,6 +10058,10 @@
       <c r="B368" s="0" t="s">
         <v>439</v>
       </c>
+      <c r="V368" s="0" t="str">
+        <f aca="false">IF(OR(N368 &lt;&gt; "", J368 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C369" s="0" t="s">
@@ -8621,11 +10073,19 @@
       <c r="H369" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="V369" s="0" t="str">
+        <f aca="false">IF(OR(N369 &lt;&gt; "", J369 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="V370" s="0" t="str">
+        <f aca="false">IF(OR(N370 &lt;&gt; "", J370 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C371" s="0" t="s">
@@ -8640,16 +10100,28 @@
       <c r="U371" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V371" s="0" t="str">
+        <f aca="false">IF(OR(N371 &lt;&gt; "", J371 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V372" s="0" t="str">
+        <f aca="false">IF(OR(N372 &lt;&gt; "", J372 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V373" s="0" t="str">
+        <f aca="false">IF(OR(N373 &lt;&gt; "", J373 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C374" s="0" t="s">
@@ -8664,13 +10136,26 @@
       <c r="F374" s="0" t="s">
         <v>442</v>
       </c>
+      <c r="V374" s="0" t="str">
+        <f aca="false">IF(OR(N374 &lt;&gt; "", J374 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="376" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="V375" s="0" t="str">
+        <f aca="false">IF(OR(N375 &lt;&gt; "", J375 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="376" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V376" s="0" t="str">
+        <f aca="false">IF(OR(N376 &lt;&gt; "", J376 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
         <v>54</v>
@@ -8678,11 +10163,19 @@
       <c r="B377" s="0" t="s">
         <v>93</v>
       </c>
+      <c r="V377" s="0" t="str">
+        <f aca="false">IF(OR(N377 &lt;&gt; "", J377 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V378" s="0" t="str">
+        <f aca="false">IF(OR(N378 &lt;&gt; "", J378 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C379" s="0" t="s">
@@ -8697,6 +10190,10 @@
       <c r="Q379" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V379" s="0" t="str">
+        <f aca="false">IF(OR(N379 &lt;&gt; "", J379 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
@@ -8705,6 +10202,10 @@
       <c r="B380" s="0" t="s">
         <v>93</v>
       </c>
+      <c r="V380" s="0" t="str">
+        <f aca="false">IF(OR(N380 &lt;&gt; "", J380 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C381" s="0" t="s">
@@ -8716,6 +10217,10 @@
       <c r="U381" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="V381" s="0" t="str">
+        <f aca="false">IF(OR(N381 &lt;&gt; "", J381 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C382" s="0" t="s">
@@ -8727,6 +10232,10 @@
       <c r="U382" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="V382" s="0" t="str">
+        <f aca="false">IF(OR(N382 &lt;&gt; "", J382 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C383" s="0" t="s">
@@ -8747,6 +10256,10 @@
       <c r="U383" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="V383" s="0" t="str">
+        <f aca="false">IF(OR(N383 &lt;&gt; "", J383 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
@@ -8755,6 +10268,10 @@
       <c r="B384" s="0" t="s">
         <v>447</v>
       </c>
+      <c r="V384" s="0" t="str">
+        <f aca="false">IF(OR(N384 &lt;&gt; "", J384 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C385" s="0" t="s">
@@ -8775,6 +10292,10 @@
       <c r="U385" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="V385" s="0" t="str">
+        <f aca="false">IF(OR(N385 &lt;&gt; "", J385 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C386" s="0" t="s">
@@ -8804,32 +10325,61 @@
       <c r="U386" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="V386" s="0" t="str">
+        <f aca="false">IF(OR(N386 &lt;&gt; "", J386 &lt;&gt; ""), "finalize", "")</f>
+        <v>finalize</v>
+      </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V387" s="0" t="str">
+        <f aca="false">IF(OR(N387 &lt;&gt; "", J387 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="V388" s="0" t="str">
+        <f aca="false">IF(OR(N388 &lt;&gt; "", J388 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="V389" s="0" t="str">
+        <f aca="false">IF(OR(N389 &lt;&gt; "", J389 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="391" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="V390" s="0" t="str">
+        <f aca="false">IF(OR(N390 &lt;&gt; "", J390 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="391" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V391" s="0" t="str">
+        <f aca="false">IF(OR(N391 &lt;&gt; "", J391 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
+    </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V392" s="0" t="str">
+        <f aca="false">IF(OR(N392 &lt;&gt; "", J392 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C393" s="0" t="s">
@@ -8838,6 +10388,10 @@
       <c r="F393" s="0" t="s">
         <v>456</v>
       </c>
+      <c r="V393" s="0" t="str">
+        <f aca="false">IF(OR(N393 &lt;&gt; "", J393 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C394" s="0" t="s">
@@ -8855,10 +10409,18 @@
       <c r="M394" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V394" s="0" t="str">
+        <f aca="false">IF(OR(N394 &lt;&gt; "", J394 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
         <v>46</v>
+      </c>
+      <c r="V395" s="0" t="str">
+        <f aca="false">IF(OR(N395 &lt;&gt; "", J395 &lt;&gt; ""), "finalize", "")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -8879,11 +10441,11 @@
   </sheetPr>
   <dimension ref="A1:C210"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A202" activeCellId="0" sqref="A202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.32"/>
@@ -11219,11 +12781,11 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="73.07"/>
@@ -11271,11 +12833,11 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.94"/>
@@ -11370,11 +12932,11 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.6"/>
@@ -11642,11 +13204,11 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.72"/>
@@ -12227,11 +13789,11 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.27"/>
@@ -12279,11 +13841,11 @@
   </sheetPr>
   <dimension ref="A1:D318"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A228" activeCellId="0" sqref="A228"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="55.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="59.07"/>

--- a/odkx/app/config/tables/census/forms/census/census.xlsx
+++ b/odkx/app/config/tables/census/forms/census/census.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -4451,22 +4451,22 @@
     <t xml:space="preserve">49. Katika miezi 12 iliyopita, yoyote kati ya, nguruwe wako alipokea ivamektini?</t>
   </si>
   <si>
-    <t xml:space="preserve">50. Who is responsible and makes the decisions about drug treatment of [cattle]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50. Quem é o responsável e toma as decisões sobre o tratamento do [bovino] com medicamentos?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50. Ni nani anayewajibika na anayefanya uamuzi kuhusu matibabu ya dawa ya [ng’ombe]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50. Who is responsible and makes the decisions about drug treatment of [pigs]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50. Quem é o responsável e toma as decisões sobre o tratamento do [porcos] com medicamentos?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50. Ni nani anayewajibika na anayefanya uamuzi kuhusu matibabu ya dawa ya [nguruwe]</t>
+    <t xml:space="preserve">50. Who is responsible and makes the decisions about drug treatment of cattle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50. Quem é o responsável e toma as decisões sobre o tratamento do bovino com medicamentos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50. Ni nani anayewajibika na anayefanya uamuzi kuhusu matibabu ya dawa ya ng’ombe?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50. Who is responsible and makes the decisions about drug treatment of pigs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50. Quem é o responsável e toma as decisões sobre o tratamento do porcos com medicamentos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50. Ni nani anayewajibika na anayefanya uamuzi kuhusu matibabu ya dawa ya nguruwe?</t>
   </si>
   <si>
     <t xml:space="preserve">51. In the past 12 months, did you send your cattle to slaughter?</t>
@@ -4713,7 +4713,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4756,12 +4756,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4831,7 +4825,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4881,10 +4875,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4985,13 +4975,13 @@
   </sheetPr>
   <dimension ref="A1:V395"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.04"/>
@@ -10649,7 +10639,7 @@
       <selection pane="topLeft" activeCell="C182" activeCellId="0" sqref="C182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.32"/>
@@ -12989,7 +12979,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="73.07"/>
@@ -13041,7 +13031,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.94"/>
@@ -13140,7 +13130,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.6"/>
@@ -13412,7 +13402,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.72"/>
@@ -13997,7 +13987,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.3203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.27"/>
@@ -14045,8 +14035,8 @@
   </sheetPr>
   <dimension ref="A1:E319"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A273" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D294" activeCellId="0" sqref="D294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16783,7 +16773,7 @@
       <c r="B199" s="9" t="s">
         <v>1233</v>
       </c>
-      <c r="C199" s="12" t="s">
+      <c r="C199" s="11" t="s">
         <v>1234</v>
       </c>
       <c r="D199" s="9" t="s">
@@ -16828,7 +16818,7 @@
       <c r="B203" s="11" t="s">
         <v>1243</v>
       </c>
-      <c r="C203" s="12" t="s">
+      <c r="C203" s="11" t="s">
         <v>1244</v>
       </c>
       <c r="D203" s="3" t="s">
@@ -16842,10 +16832,10 @@
       <c r="B204" s="11" t="s">
         <v>1246</v>
       </c>
-      <c r="C204" s="13" t="s">
+      <c r="C204" s="12" t="s">
         <v>1247</v>
       </c>
-      <c r="D204" s="13" t="s">
+      <c r="D204" s="12" t="s">
         <v>1248</v>
       </c>
     </row>
@@ -16897,7 +16887,7 @@
       <c r="B208" s="9" t="s">
         <v>1259</v>
       </c>
-      <c r="C208" s="12" t="s">
+      <c r="C208" s="11" t="s">
         <v>1260</v>
       </c>
       <c r="D208" s="3" t="s">
@@ -18022,7 +18012,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="9" t="s">
         <v>290</v>
       </c>
@@ -18036,7 +18026,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="9" t="s">
         <v>354</v>
       </c>
